--- a/Data_frame/balancos_definitivos/AURA33.xlsx
+++ b/Data_frame/balancos_definitivos/AURA33.xlsx
@@ -3680,7 +3680,7 @@
         <v>3064830.976</v>
       </c>
       <c r="S48" t="n">
-        <v>3174019.072</v>
+        <v>2964323.072</v>
       </c>
       <c r="T48" t="n">
         <v>3059168</v>
@@ -3948,7 +3948,7 @@
         <v>-1673474.944</v>
       </c>
       <c r="S52" t="n">
-        <v>-1943627.008</v>
+        <v>-1733931.008</v>
       </c>
       <c r="T52" t="n">
         <v>-1835458.944</v>
